--- a/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,58; 33,64</t>
+          <t>16,97; 33,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 9,41</t>
+          <t>0,72; 8,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 20,17</t>
+          <t>8,2; 20,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,31</t>
+          <t>0,61; 4,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,17; 24,29</t>
+          <t>13,97; 24,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,86</t>
+          <t>1,12; 5,27</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,19</t>
+          <t>8,72; 13,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,88</t>
+          <t>3,18; 7,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,04</t>
+          <t>6,48; 11,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,6</t>
+          <t>2,36; 5,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,58</t>
+          <t>8,18; 11,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,83</t>
+          <t>3,19; 5,78</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,8</t>
+          <t>10,55; 14,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 26,86</t>
+          <t>6,63; 27,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,33</t>
+          <t>6,94; 10,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,51</t>
+          <t>2,3; 4,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 11,94</t>
+          <t>9,25; 11,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 17,23</t>
+          <t>4,69; 15,93</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 15,75</t>
+          <t>10,8; 15,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 10,43</t>
+          <t>5,34; 10,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,14</t>
+          <t>5,33; 9,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,97</t>
+          <t>1,89; 4,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 11,69</t>
+          <t>8,6; 11,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,81</t>
+          <t>3,73; 6,74</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 13,15</t>
+          <t>9,06; 13,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 12,25</t>
+          <t>7,73; 12,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,51</t>
+          <t>5,52; 8,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,86</t>
+          <t>3,88; 6,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 10,25</t>
+          <t>7,6; 10,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,63</t>
+          <t>5,94; 8,67</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,42; 13,66</t>
+          <t>11,3; 13,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,98</t>
+          <t>7,12; 14,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,01; 8,73</t>
+          <t>6,94; 8,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,62</t>
+          <t>3,12; 4,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 10,82</t>
+          <t>9,44; 10,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,17</t>
+          <t>5,27; 9,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,97; 33,54</t>
+          <t>17,12; 32,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 20,65</t>
+          <t>8,09; 20,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,97; 24,7</t>
+          <t>14,4; 24,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 13,82</t>
+          <t>8,7; 13,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,06</t>
+          <t>6,51; 11,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,18; 11,79</t>
+          <t>8,11; 11,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 14,74</t>
+          <t>10,64; 15,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,35</t>
+          <t>6,84; 10,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,25; 11,96</t>
+          <t>9,21; 12,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 15,72</t>
+          <t>10,62; 15,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,11</t>
+          <t>5,46; 9,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,81</t>
+          <t>8,48; 11,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 13,21</t>
+          <t>9,19; 13,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,67</t>
+          <t>5,44; 8,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,06</t>
+          <t>7,54; 10,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,3; 13,62</t>
+          <t>11,32; 13,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,88</t>
+          <t>6,98; 8,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,44; 10,86</t>
+          <t>9,36; 10,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 32,43</t>
+          <t>17,58; 33,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 8,92</t>
+          <t>0,74; 9,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 20,78</t>
+          <t>7,42; 20,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,03</t>
+          <t>0,6; 4,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,4; 24,55</t>
+          <t>14,17; 24,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,27</t>
+          <t>1,02; 4,86</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 13,98</t>
+          <t>8,8; 14,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,52</t>
+          <t>3,13; 7,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,12</t>
+          <t>6,35; 11,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,58</t>
+          <t>2,44; 5,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 11,67</t>
+          <t>7,96; 11,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,78</t>
+          <t>3,19; 5,83</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,64; 15,0</t>
+          <t>10,76; 14,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 27,45</t>
+          <t>6,69; 26,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,37</t>
+          <t>7,03; 10,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,52</t>
+          <t>2,23; 4,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 12,02</t>
+          <t>9,18; 11,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 15,93</t>
+          <t>4,84; 17,23</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 15,69</t>
+          <t>10,71; 15,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,42</t>
+          <t>5,36; 10,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,14</t>
+          <t>5,47; 9,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,79</t>
+          <t>1,82; 4,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 11,74</t>
+          <t>8,54; 11,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,74</t>
+          <t>3,9; 6,81</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,11</t>
+          <t>9,11; 13,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,73; 12,08</t>
+          <t>7,67; 12,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 8,54</t>
+          <t>5,35; 8,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,94</t>
+          <t>3,84; 6,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 10,03</t>
+          <t>7,59; 10,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,67</t>
+          <t>5,91; 8,63</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,32; 13,51</t>
+          <t>11,42; 13,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,37</t>
+          <t>7,17; 14,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 8,87</t>
+          <t>7,01; 8,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,53</t>
+          <t>3,16; 4,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,36; 10,78</t>
+          <t>9,39; 10,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,19</t>
+          <t>5,35; 9,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,58; 33,64</t>
+          <t>11,13; 16,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 9,41</t>
+          <t>2,97; 6,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 20,17</t>
+          <t>7,27; 11,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,31</t>
+          <t>2,24; 4,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,17; 24,29</t>
+          <t>9,69; 13,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,86</t>
+          <t>2,99; 5,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>15,86%</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,19</t>
+          <t>10,76; 14,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,88</t>
+          <t>6,53; 60,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,04</t>
+          <t>7,03; 10,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,6</t>
+          <t>2,14; 4,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,58</t>
+          <t>9,18; 11,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,83</t>
+          <t>4,72; 45,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,8</t>
+          <t>10,71; 15,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 26,86</t>
+          <t>5,19; 10,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,33</t>
+          <t>5,47; 9,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,51</t>
+          <t>1,23; 4,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 11,94</t>
+          <t>8,54; 11,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 17,23</t>
+          <t>3,01; 6,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 15,75</t>
+          <t>9,11; 13,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 10,43</t>
+          <t>7,32; 11,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,14</t>
+          <t>5,35; 8,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,97</t>
+          <t>3,22; 5,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 11,69</t>
+          <t>7,59; 10,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,81</t>
+          <t>5,42; 8,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -959,124 +959,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 13,15</t>
+          <t>11,42; 13,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 12,25</t>
+          <t>6,92; 36,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,51</t>
+          <t>7,01; 8,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,86</t>
+          <t>2,82; 4,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 10,25</t>
+          <t>9,39; 10,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,63</t>
+          <t>5,07; 21,91</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,42%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,96%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,85%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,08%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>11,42; 13,66</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,17; 14,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 8,73</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 4,62</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>9,39; 10,82</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 9,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1086,7 +1006,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,13; 16,34</t>
+          <t>11,11; 16,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,96</t>
+          <t>2,99; 6,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,54</t>
+          <t>7,33; 11,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,87</t>
+          <t>2,19; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 13,17</t>
+          <t>9,77; 13,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,2</t>
+          <t>2,97; 5,14</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,8</t>
+          <t>10,6; 14,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 60,29</t>
+          <t>6,53; 59,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,33</t>
+          <t>6,89; 10,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,29</t>
+          <t>2,15; 4,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 11,94</t>
+          <t>9,21; 12,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 45,48</t>
+          <t>4,68; 42,46</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,71; 15,75</t>
+          <t>10,55; 15,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,26</t>
+          <t>5,06; 10,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,14</t>
+          <t>5,47; 9,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,2</t>
+          <t>1,27; 4,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,54; 11,69</t>
+          <t>8,65; 11,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,23</t>
+          <t>2,96; 6,37</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,11; 13,15</t>
+          <t>9,03; 12,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 11,82</t>
+          <t>7,32; 11,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,51</t>
+          <t>5,35; 8,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,97</t>
+          <t>3,22; 5,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 10,25</t>
+          <t>7,48; 10,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,14</t>
+          <t>5,47; 8,05</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,42; 13,66</t>
+          <t>11,34; 13,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 36,75</t>
+          <t>6,79; 33,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,01; 8,73</t>
+          <t>6,95; 8,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,2</t>
+          <t>2,76; 4,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 10,82</t>
+          <t>9,45; 10,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 21,91</t>
+          <t>4,95; 19,7</t>
         </is>
       </c>
     </row>
@@ -1009,4 +1010,714 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume comida rápida al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>89996</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28547</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61758</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22576</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>151754</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>51124</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>74573; 110333</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18934; 44266</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48819; 77644</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14723; 32253</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>130631; 176342</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38859; 67115</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>128161</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>311371</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>88114</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29324</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>216275</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>340695</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>107860; 152442</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>77878; 714367</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>71724; 107666</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20550; 40783</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>189598; 247572</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100552; 912183</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>99227</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51508</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>55592</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24804</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>154820</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>76312</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>79828; 117753</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35642; 75613</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42799; 71448</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11858; 41509</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>133167; 180651</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48518; 104318</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>101552</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>85835</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70839</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>49614</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>172390</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>135449</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>83791; 120520</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>67751; 108477</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55210; 87331</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35106; 65338</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>146512; 196576</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>110249; 162292</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>418936</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>477261</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>276303</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>126318</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>695239</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>603580</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>382726; 461225</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>234801; 1142864</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>244622; 308418</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>100909; 150807</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>651861; 746544</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>351851; 1400428</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>